--- a/output/part1/grs_size_op3.xlsx
+++ b/output/part1/grs_size_op3.xlsx
@@ -462,87 +462,87 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4.602212465798758</v>
+        <v>11.08709081533996</v>
       </c>
       <c r="B2" t="n">
-        <v>2.04268690850995e-09</v>
+        <v>1.110223024625157e-16</v>
       </c>
       <c r="C2" t="n">
-        <v>0.04869990353234874</v>
+        <v>0.003769768628071014</v>
       </c>
       <c r="D2" t="n">
-        <v>-47.9860816950211</v>
+        <v>0.5078544707115397</v>
       </c>
       <c r="E2" t="n">
-        <v>2302.664036441239</v>
+        <v>0.2579161634216982</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>3.087852305803247</v>
+        <v>8.526064092341917</v>
       </c>
       <c r="B3" t="n">
-        <v>1.795600944509701e-05</v>
+        <v>1.110223024625157e-16</v>
       </c>
       <c r="C3" t="n">
-        <v>0.03853671136217015</v>
+        <v>0.004230512232555903</v>
       </c>
       <c r="D3" t="n">
-        <v>-37.97185714041923</v>
+        <v>0.5699247785938388</v>
       </c>
       <c r="E3" t="n">
-        <v>1441.861934692407</v>
+        <v>0.3248142532552362</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3.049235682787558</v>
+        <v>10.30892457946977</v>
       </c>
       <c r="B4" t="n">
-        <v>2.252035388217166e-05</v>
+        <v>1.110223024625157e-16</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0273748615088796</v>
+        <v>0.003729885883511057</v>
       </c>
       <c r="D4" t="n">
-        <v>-26.9736127892414</v>
+        <v>0.5024815600299138</v>
       </c>
       <c r="E4" t="n">
-        <v>727.5757869039275</v>
+        <v>0.2524877181700959</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4.520554741133</v>
+        <v>9.590471825901743</v>
       </c>
       <c r="B5" t="n">
-        <v>3.343048726733855e-09</v>
+        <v>1.110223024625157e-16</v>
       </c>
       <c r="C5" t="n">
-        <v>0.06689184293618747</v>
+        <v>0.005761314904354511</v>
       </c>
       <c r="D5" t="n">
-        <v>-65.91137162590603</v>
+        <v>0.776150957797813</v>
       </c>
       <c r="E5" t="n">
-        <v>4344.30890960829</v>
+        <v>0.6024103092904624</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2.438213768916406</v>
+        <v>7.81511277691239</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0007406846708550852</v>
+        <v>1.110223024625157e-16</v>
       </c>
       <c r="C6" t="n">
-        <v>0.02499432293763699</v>
+        <v>0.003657881049432447</v>
       </c>
       <c r="D6" t="n">
-        <v>-24.62796710881582</v>
+        <v>0.4927812360823468</v>
       </c>
       <c r="E6" t="n">
-        <v>606.5367639129138</v>
+        <v>0.2428333466348455</v>
       </c>
     </row>
   </sheetData>
